--- a/biology/Zoologie/Le_Chihuahua_de_Beverly_Hills/Le_Chihuahua_de_Beverly_Hills.xlsx
+++ b/biology/Zoologie/Le_Chihuahua_de_Beverly_Hills/Le_Chihuahua_de_Beverly_Hills.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chihuahua de Beverly Hills (Beverly Hills Chihuahua) est un film américain pour enfants réalisé par Raja Gosnell[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chihuahua de Beverly Hills (Beverly Hills Chihuahua) est un film américain pour enfants réalisé par Raja Gosnell.
 Une suite a été produite fin 2010, elle n'a pas été diffusée au cinéma en France et est donc directement sortie en DVD et BluRay le 7 février 2011.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivian Ashe, une femme très riche de la luxueuse ville Beverly Hills, ayant une femelle chihuahua, Chloé, la laisse à sa nièce Rachel, car elle part en voyage d'affaires. Rachel décide de partir en vacances à Mexico avec ses amies, et emporte Chloé. Mais un soir quand elle va à une soirée, elle décide de la laisser dans la chambre d'hôtel. Chloé n'a qu'une idée en tête, les poursuivre pour ne pas rester seule. Mais malheureusement, après quelques minutes de trajet, elle se retrouve soudainement perdue en plein cœur de la ville de Mexico. Elle se fait enlever par des gitans qui organisent des combats de chiens. À ce fameux endroit, elle rencontre de gentils chiens, y compris le berger allemand Delgado, qui va l'aider à rentrer à Beverly Hills. Rachel va à la police pour signaler la disparition de la chienne, et veut rapidement la retrouver pour que Chloé ne se fasse pas voler son précieux collier orné de diamants...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : Beverly Hills Chihuahua
 Titre français : Le Chihuahua de Beverly Hills
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Personnages humains
-Piper Perabo (V. F. : Laura Blanc ; V. Q. : Julie Burroughs) : Rachel Ashe Lynn
+          <t>Personnages humains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Piper Perabo (V. F. : Laura Blanc ; V. Q. : Julie Burroughs) : Rachel Ashe Lynn
 Jamie Lee Curtis (V. F. : Véronique Augereau ; V. Q. : Madeleine Arsenault) : Tante Vivian
 Axel Alba : Pedro
 Manolo Cardona (V. F. : Emmanuel Garijo) : Sam Cortez
@@ -610,9 +631,43 @@
 Giovanna Acha : Guide du musée
 Fernando Manzano : Responsable
 Randall England : le majordome
-Brandon Keener : le serveur
-Voix des animaux
-La version française a majoritairement été doublée par des membres du Jamel Comedy Club.
+Brandon Keener : le serveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Chihuahua_de_Beverly_Hills</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Chihuahua_de_Beverly_Hills</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix des animaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La version française a majoritairement été doublée par des membres du Jamel Comedy Club.
 George Lopez (VQ : Sylvain Hétu - VF : Yacine Belhousse) : Papi
 Drew Barrymore (VQ : Aline Pinsonneault - VF : Amelle Chahbi) : Chloé
 Eddie Piolín Sotelo (VF : Yacine Belhousse) : Rafa
@@ -627,34 +682,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Le_Chihuahua_de_Beverly_Hills</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Chihuahua_de_Beverly_Hills</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Compte tenu du succès rencontré par cette aventure, une suite a été tournée sous le titre Le Chihuahua de Beverly Hills 2.
-Le 18 septembre 2012, un 3e volet sort aux États-Unis[2].
+Le 18 septembre 2012, un 3e volet sort aux États-Unis.
 </t>
         </is>
       </c>
